--- a/kadai14/kadai14.xlsx
+++ b/kadai14/kadai14.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kou\Desktop\4J_Simulation\kadai14\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4456BB93-10AB-47DA-A199-0D1070375557}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062F584-C7BC-4BF1-8DCC-A523A9D8395E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{63EB2C55-6B0C-43C5-ADB1-0C7BEF2FACF1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{63EB2C55-6B0C-43C5-ADB1-0C7BEF2FACF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +32,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
   <si>
     <t>STEP</t>
   </si>
   <si>
     <t xml:space="preserve"> bunsan</t>
+  </si>
+  <si>
+    <t>bunsan</t>
   </si>
 </sst>
 </file>
@@ -117,37 +121,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -156,10 +130,13 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>分散のデータ値</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -169,12 +146,13 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:trendline>
+            <c:name>一次直線</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="lgDash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -183,81 +161,24 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
+            <c:name>二次曲線</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="dash"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="ja-JP"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$11</c:f>
+              <c:f>Sheet1!$H$15:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -296,39 +217,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$11</c:f>
+              <c:f>Sheet1!$I$15:$I$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2208.7040000000002</c:v>
+                  <c:v>-1292039.5719999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9210.4824000000008</c:v>
+                  <c:v>-17521748.637200002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20611.068240000001</c:v>
+                  <c:v>-85962996.179719999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39501.850824000001</c:v>
+                  <c:v>-271856508.62197202</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58449.601082000001</c:v>
+                  <c:v>-661073320.18219697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81546.076107999994</c:v>
+                  <c:v>-1375414664.9462099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>115839.255611</c:v>
+                  <c:v>-2555708081.2186198</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>176230.16156099999</c:v>
+                  <c:v>-4377754633.1618605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>215395.736156</c:v>
+                  <c:v>-7035324404.1841803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>249389.78961599999</c:v>
+                  <c:v>-10746941452.346399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -361,17 +282,65 @@
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ステップ数</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -379,12 +348,7 @@
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:noFill/>
             <a:round/>
           </a:ln>
           <a:effectLst/>
@@ -396,10 +360,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -434,6 +395,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>分散</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -442,10 +462,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:schemeClr val="tx1"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -458,10 +475,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -472,6 +486,1571 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="485847352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$201</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="200"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-27</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-35</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-39</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-23</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-29</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-22</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-21</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DE1-46E3-A093-E38EC007ED13}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="555960152"/>
+        <c:axId val="555961464"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="555960152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>X</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555961464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="555961464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Y</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.7789520856144809E-2"/>
+              <c:y val="0.46750767526645387"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="555960152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -560,6 +2139,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1076,20 +2695,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>204787</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>214311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>661987</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>219074</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1097,6 +3232,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49F1AB40-B8F0-4DBB-A9C3-A339E7F37E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>178777</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>162290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638908</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>44327</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3403AC-E501-43F0-BA47-7EE2B53461F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,15 +3590,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863ED34B-EF75-4712-B8AF-B2DB6245EC5D}">
-  <dimension ref="B2:F12"/>
+  <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F11"/>
+    <sheetView topLeftCell="L1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1433,10 +3623,16 @@
         <v>500</v>
       </c>
       <c r="F2">
-        <v>2208.7040000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
+        <v>3091.34</v>
+      </c>
+      <c r="H2">
+        <v>500</v>
+      </c>
+      <c r="I2">
+        <v>3098.9079999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>500</v>
       </c>
@@ -1447,10 +3643,16 @@
         <v>1000</v>
       </c>
       <c r="F3">
-        <v>9210.4824000000008</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+        <v>11463.897999999999</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+      <c r="I3">
+        <v>9897.2067999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1000</v>
       </c>
@@ -1461,10 +3663,16 @@
         <v>1500</v>
       </c>
       <c r="F4">
-        <v>20611.068240000001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+        <v>26258.353800000001</v>
+      </c>
+      <c r="H4">
+        <v>1500</v>
+      </c>
+      <c r="I4">
+        <v>22546.38868</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1500</v>
       </c>
@@ -1475,10 +3683,16 @@
         <v>2000</v>
       </c>
       <c r="F5">
-        <v>39501.850824000001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+        <v>46493.03138</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5">
+        <v>39164.426868000002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>2000</v>
       </c>
@@ -1489,10 +3703,16 @@
         <v>2500</v>
       </c>
       <c r="F6">
-        <v>58449.601082000001</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+        <v>71557.331137999994</v>
+      </c>
+      <c r="H6">
+        <v>2500</v>
+      </c>
+      <c r="I6">
+        <v>63781.958686999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7">
         <v>2500</v>
       </c>
@@ -1503,10 +3723,16 @@
         <v>3000</v>
       </c>
       <c r="F7">
-        <v>81546.076107999994</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+        <v>94939.401113999993</v>
+      </c>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+      <c r="I7">
+        <v>86245.887868999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>3000</v>
       </c>
@@ -1517,10 +3743,16 @@
         <v>3500</v>
       </c>
       <c r="F8">
-        <v>115839.255611</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+        <v>118096.692111</v>
+      </c>
+      <c r="H8">
+        <v>3500</v>
+      </c>
+      <c r="I8">
+        <v>131017.12878699999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>3500</v>
       </c>
@@ -1531,10 +3763,16 @@
         <v>4000</v>
       </c>
       <c r="F9">
-        <v>176230.16156099999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+        <v>165836.23321100001</v>
+      </c>
+      <c r="H9">
+        <v>4000</v>
+      </c>
+      <c r="I9">
+        <v>168552.91287900001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>4000</v>
       </c>
@@ -1545,10 +3783,16 @@
         <v>4500</v>
       </c>
       <c r="F10">
-        <v>215395.736156</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+        <v>217854.50732100001</v>
+      </c>
+      <c r="H10">
+        <v>4500</v>
+      </c>
+      <c r="I10">
+        <v>215684.675288</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11">
         <v>4500</v>
       </c>
@@ -1559,15 +3803,109 @@
         <v>5000</v>
       </c>
       <c r="F11">
-        <v>249389.78961599999</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+        <v>267024.83873199997</v>
+      </c>
+      <c r="H11">
+        <v>5000</v>
+      </c>
+      <c r="I11">
+        <v>265376.72752900003</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12">
         <v>5000</v>
       </c>
       <c r="C12">
         <v>254811.03460099999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H15">
+        <v>500</v>
+      </c>
+      <c r="I15">
+        <v>-1292039.5719999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>-17521748.637200002</v>
+      </c>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H17">
+        <v>1500</v>
+      </c>
+      <c r="I17">
+        <v>-85962996.179719999</v>
+      </c>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H18">
+        <v>2000</v>
+      </c>
+      <c r="I18">
+        <v>-271856508.62197202</v>
+      </c>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H19">
+        <v>2500</v>
+      </c>
+      <c r="I19">
+        <v>-661073320.18219697</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H20">
+        <v>3000</v>
+      </c>
+      <c r="I20">
+        <v>-1375414664.9462099</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H21">
+        <v>3500</v>
+      </c>
+      <c r="I21">
+        <v>-2555708081.2186198</v>
+      </c>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H22">
+        <v>4000</v>
+      </c>
+      <c r="I22">
+        <v>-4377754633.1618605</v>
+      </c>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H23">
+        <v>4500</v>
+      </c>
+      <c r="I23">
+        <v>-7035324404.1841803</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="H24">
+        <v>5000</v>
+      </c>
+      <c r="I24">
+        <v>-10746941452.346399</v>
       </c>
     </row>
   </sheetData>
@@ -1576,4 +3914,1621 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4299B653-CADC-4901-8700-E48C8F195163}">
+  <dimension ref="B2:C201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>-17</v>
+      </c>
+      <c r="C3">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>-26</v>
+      </c>
+      <c r="C5">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>-10</v>
+      </c>
+      <c r="C9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>-27</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>-6</v>
+      </c>
+      <c r="C15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>-13</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>-28</v>
+      </c>
+      <c r="C19">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>-6</v>
+      </c>
+      <c r="C21">
+        <v>-28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>-10</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>-18</v>
+      </c>
+      <c r="C24">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>-21</v>
+      </c>
+      <c r="C25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>-20</v>
+      </c>
+      <c r="C27">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>-28</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>34</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>-5</v>
+      </c>
+      <c r="C35">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>-42</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>-21</v>
+      </c>
+      <c r="C39">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B41">
+        <v>-13</v>
+      </c>
+      <c r="C41">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B42">
+        <v>-12</v>
+      </c>
+      <c r="C42">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B43">
+        <v>-5</v>
+      </c>
+      <c r="C43">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B45">
+        <v>-18</v>
+      </c>
+      <c r="C45">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B48">
+        <v>-6</v>
+      </c>
+      <c r="C48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B50">
+        <v>-15</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B51">
+        <v>-24</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B52">
+        <v>-14</v>
+      </c>
+      <c r="C52">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B53">
+        <v>-14</v>
+      </c>
+      <c r="C53">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B55">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B56">
+        <v>-14</v>
+      </c>
+      <c r="C56">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B57">
+        <v>-9</v>
+      </c>
+      <c r="C57">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B58">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B59">
+        <v>-8</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B60">
+        <v>-17</v>
+      </c>
+      <c r="C60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B61">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B62">
+        <v>-12</v>
+      </c>
+      <c r="C62">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B63">
+        <v>-8</v>
+      </c>
+      <c r="C63">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="C66">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B67">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B68">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B69">
+        <v>-7</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B70">
+        <v>-13</v>
+      </c>
+      <c r="C70">
+        <v>-27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B71">
+        <v>-9</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B72">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B73">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B74">
+        <v>31</v>
+      </c>
+      <c r="C74">
+        <v>-35</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B75">
+        <v>9</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B76">
+        <v>13</v>
+      </c>
+      <c r="C76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B77">
+        <v>-5</v>
+      </c>
+      <c r="C77">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B79">
+        <v>13</v>
+      </c>
+      <c r="C79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B80">
+        <v>-3</v>
+      </c>
+      <c r="C80">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B81">
+        <v>-1</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B82">
+        <v>-11</v>
+      </c>
+      <c r="C82">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B84">
+        <v>35</v>
+      </c>
+      <c r="C84">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B85">
+        <v>13</v>
+      </c>
+      <c r="C85">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B86">
+        <v>-37</v>
+      </c>
+      <c r="C86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B87">
+        <v>15</v>
+      </c>
+      <c r="C87">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B89">
+        <v>-4</v>
+      </c>
+      <c r="C89">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B91">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B93">
+        <v>28</v>
+      </c>
+      <c r="C93">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B94">
+        <v>-19</v>
+      </c>
+      <c r="C94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B95">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B96">
+        <v>-10</v>
+      </c>
+      <c r="C96">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B97">
+        <v>17</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B98">
+        <v>-26</v>
+      </c>
+      <c r="C98">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B99">
+        <v>9</v>
+      </c>
+      <c r="C99">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B100">
+        <v>31</v>
+      </c>
+      <c r="C100">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B101">
+        <v>-21</v>
+      </c>
+      <c r="C101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B102">
+        <v>-12</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B103">
+        <v>-21</v>
+      </c>
+      <c r="C103">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B104">
+        <v>19</v>
+      </c>
+      <c r="C104">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B105">
+        <v>-8</v>
+      </c>
+      <c r="C105">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B107">
+        <v>16</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B108">
+        <v>-30</v>
+      </c>
+      <c r="C108">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B109">
+        <v>-21</v>
+      </c>
+      <c r="C109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B110">
+        <v>11</v>
+      </c>
+      <c r="C110">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B111">
+        <v>15</v>
+      </c>
+      <c r="C111">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B112">
+        <v>-7</v>
+      </c>
+      <c r="C112">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B113">
+        <v>12</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B115">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B116">
+        <v>-1</v>
+      </c>
+      <c r="C116">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B117">
+        <v>-14</v>
+      </c>
+      <c r="C117">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B118">
+        <v>5</v>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B119">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B120">
+        <v>-13</v>
+      </c>
+      <c r="C120">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B121">
+        <v>-13</v>
+      </c>
+      <c r="C121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B123">
+        <v>15</v>
+      </c>
+      <c r="C123">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B124">
+        <v>-9</v>
+      </c>
+      <c r="C124">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B125">
+        <v>-4</v>
+      </c>
+      <c r="C125">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B126">
+        <v>-19</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B127">
+        <v>-8</v>
+      </c>
+      <c r="C127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B128">
+        <v>-14</v>
+      </c>
+      <c r="C128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B129">
+        <v>-12</v>
+      </c>
+      <c r="C129">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B130">
+        <v>17</v>
+      </c>
+      <c r="C130">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B131">
+        <v>5</v>
+      </c>
+      <c r="C131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B132">
+        <v>-6</v>
+      </c>
+      <c r="C132">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B133">
+        <v>2</v>
+      </c>
+      <c r="C133">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>-13</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B135">
+        <v>-1</v>
+      </c>
+      <c r="C135">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B136">
+        <v>11</v>
+      </c>
+      <c r="C136">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B137">
+        <v>-22</v>
+      </c>
+      <c r="C137">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B138">
+        <v>11</v>
+      </c>
+      <c r="C138">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B139">
+        <v>39</v>
+      </c>
+      <c r="C139">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B140">
+        <v>30</v>
+      </c>
+      <c r="C140">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B141">
+        <v>-16</v>
+      </c>
+      <c r="C141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B142">
+        <v>-15</v>
+      </c>
+      <c r="C142">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B143">
+        <v>-2</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B144">
+        <v>-28</v>
+      </c>
+      <c r="C144">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B145">
+        <v>-8</v>
+      </c>
+      <c r="C145">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B146">
+        <v>13</v>
+      </c>
+      <c r="C146">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B147">
+        <v>-8</v>
+      </c>
+      <c r="C147">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B148">
+        <v>30</v>
+      </c>
+      <c r="C148">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B149">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B150">
+        <v>-4</v>
+      </c>
+      <c r="C150">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B151">
+        <v>14</v>
+      </c>
+      <c r="C151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B152">
+        <v>12</v>
+      </c>
+      <c r="C152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B156">
+        <v>13</v>
+      </c>
+      <c r="C156">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B157">
+        <v>-2</v>
+      </c>
+      <c r="C157">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B158">
+        <v>-8</v>
+      </c>
+      <c r="C158">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B159">
+        <v>18</v>
+      </c>
+      <c r="C159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B160">
+        <v>-26</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B161">
+        <v>-4</v>
+      </c>
+      <c r="C161">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B162">
+        <v>6</v>
+      </c>
+      <c r="C162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B163">
+        <v>-19</v>
+      </c>
+      <c r="C163">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B164">
+        <v>5</v>
+      </c>
+      <c r="C164">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B165">
+        <v>18</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B166">
+        <v>-24</v>
+      </c>
+      <c r="C166">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B167">
+        <v>-6</v>
+      </c>
+      <c r="C167">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B168">
+        <v>-1</v>
+      </c>
+      <c r="C168">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B169">
+        <v>32</v>
+      </c>
+      <c r="C169">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B171">
+        <v>24</v>
+      </c>
+      <c r="C171">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B172">
+        <v>22</v>
+      </c>
+      <c r="C172">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B173">
+        <v>-11</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B174">
+        <v>21</v>
+      </c>
+      <c r="C174">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B176">
+        <v>1</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B177">
+        <v>-5</v>
+      </c>
+      <c r="C177">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B178">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B179">
+        <v>-7</v>
+      </c>
+      <c r="C179">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B180">
+        <v>10</v>
+      </c>
+      <c r="C180">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B181">
+        <v>22</v>
+      </c>
+      <c r="C181">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B182">
+        <v>-5</v>
+      </c>
+      <c r="C182">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B184">
+        <v>23</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B185">
+        <v>-13</v>
+      </c>
+      <c r="C185">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B186">
+        <v>20</v>
+      </c>
+      <c r="C186">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B187">
+        <v>11</v>
+      </c>
+      <c r="C187">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B188">
+        <v>-10</v>
+      </c>
+      <c r="C188">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B189">
+        <v>6</v>
+      </c>
+      <c r="C189">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B190">
+        <v>-17</v>
+      </c>
+      <c r="C190">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B191">
+        <v>10</v>
+      </c>
+      <c r="C191">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B192">
+        <v>-19</v>
+      </c>
+      <c r="C192">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B193">
+        <v>16</v>
+      </c>
+      <c r="C193">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B194">
+        <v>14</v>
+      </c>
+      <c r="C194">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B195">
+        <v>12</v>
+      </c>
+      <c r="C195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B196">
+        <v>0</v>
+      </c>
+      <c r="C196">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B197">
+        <v>-9</v>
+      </c>
+      <c r="C197">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B198">
+        <v>-11</v>
+      </c>
+      <c r="C198">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B199">
+        <v>4</v>
+      </c>
+      <c r="C199">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B200">
+        <v>-2</v>
+      </c>
+      <c r="C200">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B201">
+        <v>27</v>
+      </c>
+      <c r="C201">
+        <v>-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>